--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -14,39 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Reservation</t>
   </si>
   <si>
-    <t>24/10/2021</t>
-  </si>
-  <si>
-    <t>18/10/2021</t>
+    <t>26/10/2021</t>
+  </si>
+  <si>
+    <t>28/10/2021</t>
+  </si>
+  <si>
+    <t>19:30</t>
   </si>
   <si>
     <t>21:00</t>
   </si>
   <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>22:30</t>
-  </si>
-  <si>
-    <t>15:30</t>
-  </si>
-  <si>
-    <t>Niels Buisseret</t>
+    <t>Wim Roten</t>
+  </si>
+  <si>
+    <t>Ruben Claeys</t>
   </si>
   <si>
     <t>Jonas Vleugels</t>
   </si>
   <si>
-    <t>Wim Roten</t>
-  </si>
-  <si>
-    <t>Brecht Blockx</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>Yes</t>
@@ -453,22 +450,22 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>10</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -479,25 +476,25 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
       <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>10</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
